--- a/biology/Zoologie/Chaetodon_speculum/Chaetodon_speculum.xlsx
+++ b/biology/Zoologie/Chaetodon_speculum/Chaetodon_speculum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Poisson-papillon à tache ovale, Poisson-papillon à miroir
 Chaetodon speculum , communément nommé poisson-papillon à tache ovale ou poisson-papillon à miroir, est une espèce de poisson marin de la famille des Chaetodontidae.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La taille maximale du poisson-papillon à tache ovale est de 18 cm[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La taille maximale du poisson-papillon à tache ovale est de 18 cm.
 Sa coloration est jaune, une grande tache noire sur le côté, de forme ovale (d'où son nom) et une barre noire passant par l'œil.
 </t>
         </is>
@@ -544,9 +558,11 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le poisson-papillon à tache ovale se rencontre dans la région Indo-Pacifique[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le poisson-papillon à tache ovale se rencontre dans la région Indo-Pacifique.
 </t>
         </is>
       </c>
@@ -575,7 +591,9 @@
           <t>Biologie et écologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est un poisson corallien qui a une activité diurne et se nourrit d'invertébrés.
 </t>
@@ -606,7 +624,9 @@
           <t>Aquariophilie</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce poisson peut se rencontrer en aquarium, mais il n'est pas conseillé, car difficile à nourrir.
 </t>
